--- a/SQL/covid-death-exploration/Table3.xlsx
+++ b/SQL/covid-death-exploration/Table3.xlsx
@@ -1,21 +1,704 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drika/Documents/GitHub/Data-Analysis-Portfolio/SQL/covid-death-exploration/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A0BA67-D5E5-5C4E-9A11-8B26DDC9B94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$D$220</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>HighestInfectionCount</t>
+  </si>
+  <si>
+    <t>PercentPopulationInfected</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Vatican</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Timor</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Democratic Republic of Congo</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Micronesia (country)</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Northern Cyprus</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="yyyy-mm-dd hh:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="[h]:mm:ss"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,9 +707,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -41,49 +727,353 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0"/>
-    <xf numFmtId="166" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" builtinId="0" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D220"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>HighestInfectionCount</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>PercentPopulationInfected</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Andorra</t>
-        </is>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>77265</v>
@@ -95,11 +1085,9 @@
         <v>17.125477253607713</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Montenegro</t>
-        </is>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>628062</v>
@@ -111,11 +1099,9 @@
         <v>15.506271673815641</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Czechia</t>
-        </is>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>10708982</v>
@@ -124,14 +1110,12 @@
         <v>1630758</v>
       </c>
       <c r="D4">
-        <v>15.22794603632726</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>San Marino</t>
-        </is>
+        <v>15.227946036327261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
         <v>33938</v>
@@ -143,11 +1127,9 @@
         <v>14.92722022511639</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2078932</v>
@@ -159,11 +1141,9 @@
         <v>11.558434811720634</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7">
         <v>625976</v>
@@ -175,11 +1155,9 @@
         <v>10.736034608355592</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Bahrain</t>
-        </is>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1701583</v>
@@ -191,11 +1169,9 @@
         <v>10.398199793956568</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>6804596</v>
@@ -207,11 +1183,9 @@
         <v>10.133694932072382</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10">
         <v>331002647</v>
@@ -220,14 +1194,12 @@
         <v>32346971</v>
       </c>
       <c r="D10">
-        <v>9.772420641699581</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Israel</t>
-        </is>
+        <v>9.7724206416995809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
         <v>8655541</v>
@@ -236,14 +1208,12 @@
         <v>838481</v>
       </c>
       <c r="D11">
-        <v>9.687216547180586</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
+        <v>9.6872165471805864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
         <v>10099270</v>
@@ -255,11 +1225,9 @@
         <v>9.640340341430619</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Estonia</t>
-        </is>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
       </c>
       <c r="B13">
         <v>1326539</v>
@@ -268,14 +1236,12 @@
         <v>122019</v>
       </c>
       <c r="D13">
-        <v>9.198297223074482</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Lithuania</t>
-        </is>
+        <v>9.1982972230744817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
       </c>
       <c r="B14">
         <v>2722291</v>
@@ -287,11 +1253,9 @@
         <v>9.083121532562096</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
       </c>
       <c r="B15">
         <v>17134873</v>
@@ -300,14 +1264,12 @@
         <v>1522973</v>
       </c>
       <c r="D15">
-        <v>8.888148747878084</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
+        <v>8.8881487478780841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
       </c>
       <c r="B16">
         <v>11589616</v>
@@ -316,14 +1278,12 @@
         <v>990229</v>
       </c>
       <c r="D16">
-        <v>8.544105343956176</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
+        <v>8.5441053439561756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
       </c>
       <c r="B17">
         <v>4314768</v>
@@ -332,14 +1292,12 @@
         <v>364576</v>
       </c>
       <c r="D17">
-        <v>8.449492533549892</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
+        <v>8.4494925335498916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
       </c>
       <c r="B18">
         <v>68147687</v>
@@ -348,14 +1306,12 @@
         <v>5677835</v>
       </c>
       <c r="D18">
-        <v>8.33166208561121</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
+        <v>8.3316620856112102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
       <c r="B19">
         <v>10196707</v>
@@ -364,14 +1320,12 @@
         <v>836493</v>
       </c>
       <c r="D19">
-        <v>8.203560227826493</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
+        <v>8.2035602278264932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
       </c>
       <c r="B20">
         <v>4105268</v>
@@ -380,14 +1334,12 @@
         <v>332183</v>
       </c>
       <c r="D20">
-        <v>8.091627635516122</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Hungary</t>
-        </is>
+        <v>8.0916276355161223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
       </c>
       <c r="B21">
         <v>9660350</v>
@@ -396,14 +1348,12 @@
         <v>779348</v>
       </c>
       <c r="D21">
-        <v>8.067492378640525</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
+        <v>8.0674923786405248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
       <c r="B22">
         <v>3989175</v>
@@ -415,11 +1365,9 @@
         <v>7.778801381237975</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Lebanon</t>
-        </is>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
       </c>
       <c r="B23">
         <v>6825442</v>
@@ -428,14 +1376,12 @@
         <v>526578</v>
       </c>
       <c r="D23">
-        <v>7.714928937935447</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Liechtenstein</t>
-        </is>
+        <v>7.7149289379354471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
       </c>
       <c r="B24">
         <v>38137</v>
@@ -444,14 +1390,12 @@
         <v>2926</v>
       </c>
       <c r="D24">
-        <v>7.672339198154024</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
+        <v>7.6723391981540239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
       </c>
       <c r="B25">
         <v>8654618</v>
@@ -460,14 +1404,12 @@
         <v>659974</v>
       </c>
       <c r="D25">
-        <v>7.625686078807868</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
+        <v>7.6256860788078678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
       </c>
       <c r="B26">
         <v>46754783</v>
@@ -476,14 +1418,12 @@
         <v>3524077</v>
       </c>
       <c r="D26">
-        <v>7.537361471659487</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Cyprus</t>
-        </is>
+        <v>7.5373614716594872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
       </c>
       <c r="B27">
         <v>875899</v>
@@ -492,14 +1432,12 @@
         <v>65233</v>
       </c>
       <c r="D27">
-        <v>7.447548176216665</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
+        <v>7.4475481762166647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
       </c>
       <c r="B28">
         <v>37846605</v>
@@ -508,14 +1446,12 @@
         <v>2792142</v>
       </c>
       <c r="D28">
-        <v>7.377523030137049</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>North Macedonia</t>
-        </is>
+        <v>7.3775230301370494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
       </c>
       <c r="B29">
         <v>2083380</v>
@@ -524,14 +1460,12 @@
         <v>152367</v>
       </c>
       <c r="D29">
-        <v>7.313452178671199</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
+        <v>7.3134521786711986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
       </c>
       <c r="B30">
         <v>2963234</v>
@@ -540,14 +1474,12 @@
         <v>216064</v>
       </c>
       <c r="D30">
-        <v>7.291493010676849</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
+        <v>7.2914930106768487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>33</v>
       </c>
       <c r="B31">
         <v>2881060</v>
@@ -559,11 +1491,9 @@
         <v>7.138067239141149</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
       </c>
       <c r="B32">
         <v>5459643</v>
@@ -572,14 +1502,12 @@
         <v>382211</v>
       </c>
       <c r="D32">
-        <v>7.000659200610736</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
+        <v>7.0006592006107358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
       </c>
       <c r="B33">
         <v>10203140</v>
@@ -591,11 +1519,9 @@
         <v>6.9720987852759055</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>European Union</t>
-        </is>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
       </c>
       <c r="B34">
         <v>444919060</v>
@@ -604,14 +1530,12 @@
         <v>30771214</v>
       </c>
       <c r="D34">
-        <v>6.916137510494605</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
+        <v>6.9161375104946048</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>37</v>
       </c>
       <c r="B35">
         <v>212559409</v>
@@ -620,14 +1544,12 @@
         <v>14659011</v>
       </c>
       <c r="D35">
-        <v>6.896430070522072</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
+        <v>6.8964300705220722</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
       </c>
       <c r="B36">
         <v>9006400</v>
@@ -639,11 +1561,9 @@
         <v>6.871446971042813</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Malta</t>
-        </is>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
       </c>
       <c r="B37">
         <v>441539</v>
@@ -652,14 +1572,12 @@
         <v>30292</v>
       </c>
       <c r="D37">
-        <v>6.860549124765876</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
+        <v>6.8605491247658756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>40</v>
       </c>
       <c r="B38">
         <v>60461828</v>
@@ -668,14 +1586,12 @@
         <v>4022653</v>
       </c>
       <c r="D38">
-        <v>6.653211014394074</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
+        <v>6.6532110143940741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>41</v>
       </c>
       <c r="B39">
         <v>45195777</v>
@@ -684,14 +1600,12 @@
         <v>2977363</v>
       </c>
       <c r="D39">
-        <v>6.587701766915082</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
+        <v>6.5877017669150817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
       </c>
       <c r="B40">
         <v>67886004</v>
@@ -700,14 +1614,12 @@
         <v>4432246</v>
       </c>
       <c r="D40">
-        <v>6.528954038891434</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Kuwait</t>
-        </is>
+        <v>6.5289540388914338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>43</v>
       </c>
       <c r="B41">
         <v>4270563</v>
@@ -716,14 +1628,12 @@
         <v>273991</v>
       </c>
       <c r="D41">
-        <v>6.415805129206617</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>North America</t>
-        </is>
+        <v>6.4158051292066167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>44</v>
       </c>
       <c r="B42">
         <v>592072204</v>
@@ -735,11 +1645,9 @@
         <v>6.3386674372573655</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Latvia</t>
-        </is>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
       </c>
       <c r="B43">
         <v>1886202</v>
@@ -748,14 +1656,12 @@
         <v>118558</v>
       </c>
       <c r="D43">
-        <v>6.285540997199663</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
+        <v>6.2855409971996634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>46</v>
       </c>
       <c r="B44">
         <v>19116209</v>
@@ -767,11 +1673,9 @@
         <v>6.2682145816673165</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Monaco</t>
-        </is>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>47</v>
       </c>
       <c r="B45">
         <v>39244</v>
@@ -780,14 +1684,12 @@
         <v>2454</v>
       </c>
       <c r="D45">
-        <v>6.253185200285394</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Moldova</t>
-        </is>
+        <v>6.2531852002853938</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>48</v>
       </c>
       <c r="B46">
         <v>4033963</v>
@@ -796,14 +1698,12 @@
         <v>250837</v>
       </c>
       <c r="D46">
-        <v>6.218128426066377</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Bosnia and Herzegovina</t>
-        </is>
+        <v>6.2181284260663769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>49</v>
       </c>
       <c r="B47">
         <v>3280815</v>
@@ -812,14 +1712,12 @@
         <v>198461</v>
       </c>
       <c r="D47">
-        <v>6.049137180852928</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
+        <v>6.0491371808529282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>50</v>
       </c>
       <c r="B48">
         <v>748680069</v>
@@ -828,14 +1726,12 @@
         <v>44863478</v>
       </c>
       <c r="D48">
-        <v>5.992343039119958</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Seychelles</t>
-        </is>
+        <v>5.9923430391199579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>51</v>
       </c>
       <c r="B49">
         <v>98340</v>
@@ -844,14 +1740,12 @@
         <v>5873</v>
       </c>
       <c r="D49">
-        <v>5.972137482204596</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
+        <v>5.9721374822045963</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>52</v>
       </c>
       <c r="B50">
         <v>6948445</v>
@@ -860,14 +1754,12 @@
         <v>404380</v>
       </c>
       <c r="D50">
-        <v>5.819719376061839</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
+        <v>5.8197193760618386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>53</v>
       </c>
       <c r="B51">
         <v>5101416</v>
@@ -876,14 +1768,12 @@
         <v>296462</v>
       </c>
       <c r="D51">
-        <v>5.811366883233989</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>South America</t>
-        </is>
+        <v>5.8113668832339886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>54</v>
       </c>
       <c r="B52">
         <v>430759772</v>
@@ -892,14 +1782,12 @@
         <v>24878216</v>
       </c>
       <c r="D52">
-        <v>5.775426958857245</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
+        <v>5.7754269588572447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>55</v>
       </c>
       <c r="B53">
         <v>84339067</v>
@@ -908,14 +1796,12 @@
         <v>4820591</v>
       </c>
       <c r="D53">
-        <v>5.715727208601916</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
+        <v>5.7157272086019164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>56</v>
       </c>
       <c r="B54">
         <v>3473727</v>
@@ -927,11 +1813,9 @@
         <v>5.71225084757668</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>57</v>
       </c>
       <c r="B55">
         <v>50882884</v>
@@ -940,14 +1824,12 @@
         <v>2859724</v>
       </c>
       <c r="D55">
-        <v>5.620208162729141</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Maldives</t>
-        </is>
+        <v>5.6202081627291411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>58</v>
       </c>
       <c r="B56">
         <v>540542</v>
@@ -956,14 +1838,12 @@
         <v>29835</v>
       </c>
       <c r="D56">
-        <v>5.519460097457737</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
+        <v>5.5194600974577366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>59</v>
       </c>
       <c r="B57">
         <v>19237682</v>
@@ -972,14 +1852,12 @@
         <v>1055265</v>
       </c>
       <c r="D57">
-        <v>5.485406193947899</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
+        <v>5.4854061939478989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>60</v>
       </c>
       <c r="B58">
         <v>32971846</v>
@@ -988,14 +1866,12 @@
         <v>1799445</v>
       </c>
       <c r="D58">
-        <v>5.457519727588197</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Kosovo</t>
-        </is>
+        <v>5.4575197275881973</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>61</v>
       </c>
       <c r="B59">
         <v>1932774</v>
@@ -1004,14 +1880,12 @@
         <v>103638</v>
       </c>
       <c r="D59">
-        <v>5.362137528754009</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
+        <v>5.3621375287540092</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>62</v>
       </c>
       <c r="B60">
         <v>9890400</v>
@@ -1023,11 +1897,9 @@
         <v>5.260009706381946</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>63</v>
       </c>
       <c r="B61">
         <v>4937796</v>
@@ -1036,14 +1908,12 @@
         <v>248870</v>
       </c>
       <c r="D61">
-        <v>5.040102912311484</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
+        <v>5.0401029123114842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>64</v>
       </c>
       <c r="B62">
         <v>5094114</v>
@@ -1052,14 +1922,12 @@
         <v>250991</v>
       </c>
       <c r="D62">
-        <v>4.927078585206377</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
+        <v>4.9270785852063774</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>65</v>
       </c>
       <c r="B63">
         <v>43733759</v>
@@ -1068,14 +1936,12 @@
         <v>2124070</v>
       </c>
       <c r="D63">
-        <v>4.856820105493333</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
+        <v>4.8568201054933331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>66</v>
       </c>
       <c r="B64">
         <v>2877800</v>
@@ -1084,14 +1950,12 @@
         <v>131085</v>
       </c>
       <c r="D64">
-        <v>4.555042046007367</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
+        <v>4.5550420460073671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>67</v>
       </c>
       <c r="B65">
         <v>5792203</v>
@@ -1100,14 +1964,12 @@
         <v>251249</v>
       </c>
       <c r="D65">
-        <v>4.33771053949594</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Cape Verde</t>
-        </is>
+        <v>4.3377105394959399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>68</v>
       </c>
       <c r="B66">
         <v>555988</v>
@@ -1116,14 +1978,12 @@
         <v>23882</v>
       </c>
       <c r="D66">
-        <v>4.295416447837003</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
+        <v>4.2954164478370034</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>69</v>
       </c>
       <c r="B67">
         <v>83783945</v>
@@ -1132,14 +1992,12 @@
         <v>3405365</v>
       </c>
       <c r="D67">
-        <v>4.064460082417938</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
+        <v>4.0644600824179378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>70</v>
       </c>
       <c r="B68">
         <v>7132530</v>
@@ -1148,14 +2006,12 @@
         <v>279077</v>
       </c>
       <c r="D68">
-        <v>3.912735032309713</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Belarus</t>
-        </is>
+        <v>3.9127350323097132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>71</v>
       </c>
       <c r="B69">
         <v>9449321</v>
@@ -1167,11 +2023,9 @@
         <v>3.7964420935641834</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Oman</t>
-        </is>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>72</v>
       </c>
       <c r="B70">
         <v>5106622</v>
@@ -1183,11 +2037,9 @@
         <v>3.7843607770459613</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Vatican</t>
-        </is>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>73</v>
       </c>
       <c r="B71">
         <v>809</v>
@@ -1199,11 +2051,9 @@
         <v>3.3374536464771323</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>74</v>
       </c>
       <c r="B72">
         <v>10423056</v>
@@ -1215,11 +2065,9 @@
         <v>3.3102863497999047</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>75</v>
       </c>
       <c r="B73">
         <v>145934460</v>
@@ -1231,11 +2079,9 @@
         <v>3.2554031446719303</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Canada</t>
-        </is>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>76</v>
       </c>
       <c r="B74">
         <v>37742157</v>
@@ -1244,14 +2090,12 @@
         <v>1228367</v>
       </c>
       <c r="D74">
-        <v>3.254628504671845</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Belize</t>
-        </is>
+        <v>3.2546285046718451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>77</v>
       </c>
       <c r="B75">
         <v>397621</v>
@@ -1263,11 +2107,9 @@
         <v>3.1859484282771784</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Azerbaijan</t>
-        </is>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>78</v>
       </c>
       <c r="B76">
         <v>10139175</v>
@@ -1279,11 +2121,9 @@
         <v>3.1472876244862134</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Iran</t>
-        </is>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>79</v>
       </c>
       <c r="B77">
         <v>83992953</v>
@@ -1295,11 +2135,9 @@
         <v>2.9753412765473315</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>80</v>
       </c>
       <c r="B78">
         <v>59308690</v>
@@ -1311,11 +2149,9 @@
         <v>2.6660679910481924</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Bahamas</t>
-        </is>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>81</v>
       </c>
       <c r="B79">
         <v>393248</v>
@@ -1327,11 +2163,9 @@
         <v>2.6581190495565137</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Iraq</t>
-        </is>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>82</v>
       </c>
       <c r="B80">
         <v>40222503</v>
@@ -1340,14 +2174,12 @@
         <v>1065199</v>
       </c>
       <c r="D80">
-        <v>2.648266319975164</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
+        <v>2.6482663199751642</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>83</v>
       </c>
       <c r="B81">
         <v>11818618</v>
@@ -1359,11 +2191,9 @@
         <v>2.6155257746717933</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>84</v>
       </c>
       <c r="B82">
         <v>11673029</v>
@@ -1372,14 +2202,12 @@
         <v>303732</v>
       </c>
       <c r="D82">
-        <v>2.601998161745336</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Libya</t>
-        </is>
+        <v>2.6019981617453358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>85</v>
       </c>
       <c r="B83">
         <v>6871287</v>
@@ -1388,14 +2216,12 @@
         <v>177508</v>
       </c>
       <c r="D83">
-        <v>2.583329731388021</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Saint Lucia</t>
-        </is>
+        <v>2.5833297313880208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>86</v>
       </c>
       <c r="B84">
         <v>183629</v>
@@ -1407,11 +2233,9 @@
         <v>2.4789112830762026</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Dominican Republic</t>
-        </is>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>87</v>
       </c>
       <c r="B85">
         <v>10847904</v>
@@ -1423,11 +2247,9 @@
         <v>2.457258102579079</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>88</v>
       </c>
       <c r="B86">
         <v>17643060</v>
@@ -1439,11 +2261,9 @@
         <v>2.1643751140675143</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>89</v>
       </c>
       <c r="B87">
         <v>9904608</v>
@@ -1455,11 +2275,9 @@
         <v>2.1437799456576174</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>90</v>
       </c>
       <c r="B88">
         <v>5421242</v>
@@ -1471,11 +2289,9 @@
         <v>2.0838398285854054</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>91</v>
       </c>
       <c r="B89">
         <v>18776707</v>
@@ -1487,11 +2303,9 @@
         <v>2.0000258831327558</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Botswana</t>
-        </is>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>92</v>
       </c>
       <c r="B90">
         <v>2351625</v>
@@ -1503,11 +2317,9 @@
         <v>1.9958114070057937</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>93</v>
       </c>
       <c r="B91">
         <v>7794798729</v>
@@ -1519,11 +2331,9 @@
         <v>1.9423141669678896</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Namibia</t>
-        </is>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>94</v>
       </c>
       <c r="B92">
         <v>2540916</v>
@@ -1535,11 +2345,9 @@
         <v>1.9028964357735556</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>95</v>
       </c>
       <c r="B93">
         <v>341250</v>
@@ -1551,11 +2359,9 @@
         <v>1.8965567765567766</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>96</v>
       </c>
       <c r="B94">
         <v>128932753</v>
@@ -1567,11 +2373,9 @@
         <v>1.8185875547076853</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Suriname</t>
-        </is>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>97</v>
       </c>
       <c r="B95">
         <v>586634</v>
@@ -1583,11 +2387,9 @@
         <v>1.7665188175250666</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Guyana</t>
-        </is>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>98</v>
       </c>
       <c r="B96">
         <v>786559</v>
@@ -1596,14 +2398,12 @@
         <v>13283</v>
       </c>
       <c r="D96">
-        <v>1.688748078656528</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Saint Vincent and the Grenadines</t>
-        </is>
+        <v>1.6887480786565281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>99</v>
       </c>
       <c r="B97">
         <v>110947</v>
@@ -1615,11 +2415,9 @@
         <v>1.6800814803464719</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Eswatini</t>
-        </is>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>100</v>
       </c>
       <c r="B98">
         <v>1160164</v>
@@ -1631,11 +2429,9 @@
         <v>1.5909819646187953</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>101</v>
       </c>
       <c r="B99">
         <v>5540718</v>
@@ -1647,11 +2443,9 @@
         <v>1.5667283554225284</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Jamaica</t>
-        </is>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>102</v>
       </c>
       <c r="B100">
         <v>2961161</v>
@@ -1663,11 +2457,9 @@
         <v>1.5391935798154845</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Kyrgyzstan</t>
-        </is>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>103</v>
       </c>
       <c r="B101">
         <v>6524191</v>
@@ -1679,11 +2471,9 @@
         <v>1.460334315779535</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>104</v>
       </c>
       <c r="B102">
         <v>1380004385</v>
@@ -1695,11 +2485,9 @@
         <v>1.3887614567253712</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>105</v>
       </c>
       <c r="B103">
         <v>36910558</v>
@@ -1711,11 +2499,9 @@
         <v>1.3851023330506138</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Barbados</t>
-        </is>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>106</v>
       </c>
       <c r="B104">
         <v>287371</v>
@@ -1727,11 +2513,9 @@
         <v>1.3414714776369223</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>107</v>
       </c>
       <c r="B105">
         <v>17915567</v>
@@ -1743,11 +2527,9 @@
         <v>1.2707998580229138</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Malaysia</t>
-        </is>
+    <row r="106" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>108</v>
       </c>
       <c r="B106">
         <v>32365998</v>
@@ -1759,11 +2541,9 @@
         <v>1.2627850993502503</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Antigua and Barbuda</t>
-        </is>
+    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>109</v>
       </c>
       <c r="B107">
         <v>97928</v>
@@ -1775,11 +2555,9 @@
         <v>1.2580671513765216</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>110</v>
       </c>
       <c r="B108">
         <v>34813867</v>
@@ -1791,11 +2569,9 @@
         <v>1.1988412548367582</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Mongolia</t>
-        </is>
+    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>111</v>
       </c>
       <c r="B109">
         <v>3278292</v>
@@ -1807,11 +2583,9 @@
         <v>1.1373300486960893</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Djibouti</t>
-        </is>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>112</v>
       </c>
       <c r="B110">
         <v>988002</v>
@@ -1823,11 +2597,9 @@
         <v>1.1234795071265038</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Nepal</t>
-        </is>
+    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>113</v>
       </c>
       <c r="B111">
         <v>29136808</v>
@@ -1839,11 +2611,9 @@
         <v>1.1092052362084412</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>114</v>
       </c>
       <c r="B112">
         <v>6486201</v>
@@ -1855,11 +2625,9 @@
         <v>1.0668494547116256</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Sao Tome and Principe</t>
-        </is>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>115</v>
       </c>
       <c r="B113">
         <v>219161</v>
@@ -1871,11 +2639,9 @@
         <v>1.0503693631622413</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>116</v>
       </c>
       <c r="B114">
         <v>5850343</v>
@@ -1887,11 +2653,9 @@
         <v>1.045152395338188</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Gabon</t>
-        </is>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>117</v>
       </c>
       <c r="B115">
         <v>2225728</v>
@@ -1903,11 +2667,9 @@
         <v>1.0367394398596774</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>118</v>
       </c>
       <c r="B116">
         <v>109581085</v>
@@ -1916,14 +2678,12 @@
         <v>1037460</v>
       </c>
       <c r="D116">
-        <v>0.946750983529685</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Cuba</t>
-        </is>
+        <v>0.94675098352968501</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>119</v>
       </c>
       <c r="B117">
         <v>11326616</v>
@@ -1932,14 +2692,12 @@
         <v>106707</v>
       </c>
       <c r="D117">
-        <v>0.9420907356619135</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Asia</t>
-        </is>
+        <v>0.94209073566191348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>120</v>
       </c>
       <c r="B118">
         <v>4639847425</v>
@@ -1948,14 +2706,12 @@
         <v>39526308</v>
       </c>
       <c r="D118">
-        <v>0.8518880984540133</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago</t>
-        </is>
+        <v>0.85188809845401325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>121</v>
       </c>
       <c r="B119">
         <v>1399491</v>
@@ -1964,14 +2720,12 @@
         <v>10824</v>
       </c>
       <c r="D119">
-        <v>0.7734240520303453</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
-        </is>
+        <v>0.77342405203034525</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>122</v>
       </c>
       <c r="B120">
         <v>28435943</v>
@@ -1980,14 +2734,12 @@
         <v>197683</v>
       </c>
       <c r="D120">
-        <v>0.6951870736272048</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
+        <v>0.69518707362720478</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>123</v>
       </c>
       <c r="B121">
         <v>273523621</v>
@@ -1996,14 +2748,12 @@
         <v>1668368</v>
       </c>
       <c r="D121">
-        <v>0.6099539022993556</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Equatorial Guinea</t>
-        </is>
+        <v>0.60995390229935564</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>124</v>
       </c>
       <c r="B122">
         <v>1402985</v>
@@ -2015,11 +2765,9 @@
         <v>0.5484021568299019</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Sri Lanka</t>
-        </is>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>125</v>
       </c>
       <c r="B123">
         <v>21413250</v>
@@ -2028,14 +2776,12 @@
         <v>108146</v>
       </c>
       <c r="D123">
-        <v>0.5050424386769874</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Lesotho</t>
-        </is>
+        <v>0.50504243867698739</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>126</v>
       </c>
       <c r="B124">
         <v>2142252</v>
@@ -2044,14 +2790,12 @@
         <v>10731</v>
       </c>
       <c r="D124">
-        <v>0.5009214602203662</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
+        <v>0.50092146022036621</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>127</v>
       </c>
       <c r="B125">
         <v>18383956</v>
@@ -2063,11 +2807,9 @@
         <v>0.49818439513236434</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>128</v>
       </c>
       <c r="B126">
         <v>126476458</v>
@@ -2079,11 +2821,9 @@
         <v>0.46907069456356854</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>129</v>
       </c>
       <c r="B127">
         <v>164689383</v>
@@ -2095,11 +2835,9 @@
         <v>0.46094774670447336</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Comoros</t>
-        </is>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>130</v>
       </c>
       <c r="B128">
         <v>869595</v>
@@ -2108,14 +2846,12 @@
         <v>3834</v>
       </c>
       <c r="D128">
-        <v>0.4408948993496972</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mauritania</t>
-        </is>
+        <v>0.44089489934969722</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>131</v>
       </c>
       <c r="B129">
         <v>4649660</v>
@@ -2124,14 +2860,12 @@
         <v>18402</v>
       </c>
       <c r="D129">
-        <v>0.3957708735692502</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
+        <v>0.39577087356925023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>132</v>
       </c>
       <c r="B130">
         <v>220892331</v>
@@ -2143,11 +2877,9 @@
         <v>0.37372008175331356</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Africa</t>
-        </is>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>133</v>
       </c>
       <c r="B131">
         <v>1340598113</v>
@@ -2159,11 +2891,9 @@
         <v>0.33997504216985275</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>134</v>
       </c>
       <c r="B132">
         <v>31072945</v>
@@ -2172,14 +2902,12 @@
         <v>92562</v>
       </c>
       <c r="D132">
-        <v>0.2978861514413906</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Kenya</t>
-        </is>
+        <v>0.29788615144139058</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>135</v>
       </c>
       <c r="B133">
         <v>53771300</v>
@@ -2188,14 +2916,12 @@
         <v>159318</v>
       </c>
       <c r="D133">
-        <v>0.2962881685955147</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Algeria</t>
-        </is>
+        <v>0.29628816859551471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>136</v>
       </c>
       <c r="B134">
         <v>43851043</v>
@@ -2204,14 +2930,12 @@
         <v>122108</v>
       </c>
       <c r="D134">
-        <v>0.2784608794823877</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
+        <v>0.27846087948238768</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>137</v>
       </c>
       <c r="B135">
         <v>26545864</v>
@@ -2223,11 +2947,9 @@
         <v>0.2721704593981194</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>138</v>
       </c>
       <c r="B136">
         <v>33469199</v>
@@ -2239,11 +2961,9 @@
         <v>0.2713181155007624</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Myanmar</t>
-        </is>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>139</v>
       </c>
       <c r="B137">
         <v>54409794</v>
@@ -2252,14 +2972,12 @@
         <v>142817</v>
       </c>
       <c r="D137">
-        <v>0.2624839932310716</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
+        <v>0.26248399323107158</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>140</v>
       </c>
       <c r="B138">
         <v>14862927</v>
@@ -2268,14 +2986,12 @@
         <v>38257</v>
       </c>
       <c r="D138">
-        <v>0.2573988286425682</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Gambia</t>
-        </is>
+        <v>0.25739882864256819</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>141</v>
       </c>
       <c r="B139">
         <v>2416664</v>
@@ -2284,14 +3000,12 @@
         <v>5898</v>
       </c>
       <c r="D139">
-        <v>0.2440554417163495</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Dominica</t>
-        </is>
+        <v>0.24405544171634949</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>142</v>
       </c>
       <c r="B140">
         <v>71991</v>
@@ -2303,11 +3017,9 @@
         <v>0.24169687877651372</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>143</v>
       </c>
       <c r="B141">
         <v>16743930</v>
@@ -2319,11 +3031,9 @@
         <v>0.24094701781481406</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>South Korea</t>
-        </is>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>144</v>
       </c>
       <c r="B142">
         <v>51269183</v>
@@ -2332,14 +3042,12 @@
         <v>122634</v>
       </c>
       <c r="D142">
-        <v>0.2391963218918468</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Ethiopia</t>
-        </is>
+        <v>0.23919632189184681</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>145</v>
       </c>
       <c r="B143">
         <v>114963583</v>
@@ -2351,11 +3059,9 @@
         <v>0.22393352162658328</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mozambique</t>
-        </is>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>146</v>
       </c>
       <c r="B144">
         <v>31255435</v>
@@ -2367,11 +3073,9 @@
         <v>0.22369549487953055</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>147</v>
       </c>
       <c r="B145">
         <v>102334403</v>
@@ -2383,11 +3087,9 @@
         <v>0.22236119362517803</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>148</v>
       </c>
       <c r="B146">
         <v>12952209</v>
@@ -2399,11 +3101,9 @@
         <v>0.19391286845355876</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Congo</t>
-        </is>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>149</v>
       </c>
       <c r="B147">
         <v>5518092</v>
@@ -2415,11 +3115,9 @@
         <v>0.19350891576291224</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Guinea-Bissau</t>
-        </is>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>150</v>
       </c>
       <c r="B148">
         <v>1967998</v>
@@ -2431,11 +3129,9 @@
         <v>0.1897359651788264</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>151</v>
       </c>
       <c r="B149">
         <v>19129955</v>
@@ -2447,11 +3143,9 @@
         <v>0.17813946765687635</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Cote d'Ivoire</t>
-        </is>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>152</v>
       </c>
       <c r="B150">
         <v>26378275</v>
@@ -2463,11 +3157,9 @@
         <v>0.17452240527479526</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Timor</t>
-        </is>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>153</v>
       </c>
       <c r="B151">
         <v>1318442</v>
@@ -2476,14 +3168,12 @@
         <v>2276</v>
       </c>
       <c r="D151">
-        <v>0.1726279957707658</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Guinea</t>
-        </is>
+        <v>0.17262799577076579</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>154</v>
       </c>
       <c r="B152">
         <v>13132792</v>
@@ -2495,11 +3185,9 @@
         <v>0.16915671854088604</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>155</v>
       </c>
       <c r="B153">
         <v>8278737</v>
@@ -2511,11 +3199,9 @@
         <v>0.1566301719694683</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Afghanistan</t>
-        </is>
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>156</v>
       </c>
       <c r="B154">
         <v>38928341</v>
@@ -2527,11 +3213,9 @@
         <v>0.15347430295064463</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Grenada</t>
-        </is>
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>157</v>
       </c>
       <c r="B155">
         <v>112519</v>
@@ -2540,14 +3224,12 @@
         <v>160</v>
       </c>
       <c r="D155">
-        <v>0.1421982065251202</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Tajikistan</t>
-        </is>
+        <v>0.14219820652512019</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>158</v>
       </c>
       <c r="B156">
         <v>9537642</v>
@@ -2559,11 +3241,9 @@
         <v>0.13953134328170422</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Bhutan</t>
-        </is>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>159</v>
       </c>
       <c r="B157">
         <v>771612</v>
@@ -2575,11 +3255,9 @@
         <v>0.13918912614111756</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Madagascar</t>
-        </is>
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>160</v>
       </c>
       <c r="B158">
         <v>27691019</v>
@@ -2591,11 +3269,9 @@
         <v>0.13366788705031044</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Central African Republic</t>
-        </is>
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>161</v>
       </c>
       <c r="B159">
         <v>4829764</v>
@@ -2607,11 +3283,9 @@
         <v>0.13273940507238033</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Syria</t>
-        </is>
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>162</v>
       </c>
       <c r="B160">
         <v>17500657</v>
@@ -2623,11 +3297,9 @@
         <v>0.12989798040153577</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Papua New Guinea</t>
-        </is>
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>163</v>
       </c>
       <c r="B161">
         <v>8947027</v>
@@ -2639,11 +3311,9 @@
         <v>0.12291233724901021</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>164</v>
       </c>
       <c r="B162">
         <v>25499881</v>
@@ -2655,11 +3325,9 @@
         <v>0.11690642791627144</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Haiti</t>
-        </is>
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>165</v>
       </c>
       <c r="B163">
         <v>11402533</v>
@@ -2671,11 +3339,9 @@
         <v>0.11450087449867499</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>166</v>
       </c>
       <c r="B164">
         <v>6624554</v>
@@ -2687,11 +3353,9 @@
         <v>0.10412776467668616</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Eritrea</t>
-        </is>
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>167</v>
       </c>
       <c r="B165">
         <v>3546427</v>
@@ -2703,11 +3367,9 @@
         <v>0.10351263398344304</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Oceania</t>
-        </is>
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>168</v>
       </c>
       <c r="B166">
         <v>42677809</v>
@@ -2719,11 +3381,9 @@
         <v>0.10209052671846391</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Mauritius</t>
-        </is>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>169</v>
       </c>
       <c r="B167">
         <v>1271767</v>
@@ -2732,14 +3392,12 @@
         <v>1209</v>
       </c>
       <c r="D167">
-        <v>0.09506458337101056</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>South Sudan</t>
-        </is>
+        <v>9.5064583371010564E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>170</v>
       </c>
       <c r="B168">
         <v>11193729</v>
@@ -2748,14 +3406,12 @@
         <v>10583</v>
       </c>
       <c r="D168">
-        <v>0.09454400763141577</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
+        <v>9.4544007631415766E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>171</v>
       </c>
       <c r="B169">
         <v>69799978</v>
@@ -2764,14 +3420,12 @@
         <v>65153</v>
       </c>
       <c r="D169">
-        <v>0.09334243629704296</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
+        <v>9.3342436297042961E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>172</v>
       </c>
       <c r="B170">
         <v>45741000</v>
@@ -2780,14 +3434,12 @@
         <v>41866</v>
       </c>
       <c r="D170">
-        <v>0.09152838809820511</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Somalia</t>
-        </is>
+        <v>9.1528388098205113E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>173</v>
       </c>
       <c r="B171">
         <v>15893219</v>
@@ -2796,14 +3448,12 @@
         <v>13915</v>
       </c>
       <c r="D171">
-        <v>0.08755306272442354</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
+        <v>8.7553062724423536E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>174</v>
       </c>
       <c r="B172">
         <v>53192</v>
@@ -2812,14 +3462,12 @@
         <v>44</v>
       </c>
       <c r="D172">
-        <v>0.0827192058956234</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Angola</t>
-        </is>
+        <v>8.2719205895623399E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>175</v>
       </c>
       <c r="B173">
         <v>32866268</v>
@@ -2828,14 +3476,12 @@
         <v>26652</v>
       </c>
       <c r="D173">
-        <v>0.08109226152479497</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
+        <v>8.109226152479497E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>176</v>
       </c>
       <c r="B174">
         <v>16718971</v>
@@ -2844,14 +3490,12 @@
         <v>13402</v>
       </c>
       <c r="D174">
-        <v>0.08016043571102552</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
+        <v>8.0160435711025518E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>177</v>
       </c>
       <c r="B175">
         <v>206139587</v>
@@ -2860,14 +3504,12 @@
         <v>165110</v>
       </c>
       <c r="D175">
-        <v>0.08009621169950243</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
+        <v>8.0096211699502429E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>178</v>
       </c>
       <c r="B176">
         <v>43849269</v>
@@ -2876,14 +3518,12 @@
         <v>33944</v>
       </c>
       <c r="D176">
-        <v>0.07741064052857985</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Mali</t>
-        </is>
+        <v>7.7410640528579849E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>179</v>
       </c>
       <c r="B177">
         <v>20250834</v>
@@ -2892,14 +3532,12 @@
         <v>13858</v>
       </c>
       <c r="D177">
-        <v>0.06843174952695776</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Benin</t>
-        </is>
+        <v>6.8431749526957755E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>180</v>
       </c>
       <c r="B178">
         <v>12123198</v>
@@ -2908,14 +3546,12 @@
         <v>7821</v>
       </c>
       <c r="D178">
-        <v>0.06451268056497964</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Burkina Faso</t>
-        </is>
+        <v>6.4512680564979635E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>181</v>
       </c>
       <c r="B179">
         <v>20903278</v>
@@ -2924,14 +3560,12 @@
         <v>13310</v>
       </c>
       <c r="D179">
-        <v>0.06367422372701545</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
+        <v>6.367422372701545E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>182</v>
       </c>
       <c r="B180">
         <v>4822233</v>
@@ -2940,14 +3574,12 @@
         <v>2613</v>
       </c>
       <c r="D180">
-        <v>0.05418651483659127</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Brunei</t>
-        </is>
+        <v>5.4186514836591267E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>183</v>
       </c>
       <c r="B181">
         <v>437483</v>
@@ -2956,14 +3588,12 @@
         <v>224</v>
       </c>
       <c r="D181">
-        <v>0.05120198956302302</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
+        <v>5.120198956302302E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>184</v>
       </c>
       <c r="B182">
         <v>7976985</v>
@@ -2972,14 +3602,12 @@
         <v>4054</v>
       </c>
       <c r="D182">
-        <v>0.05082120625775278</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Liberia</t>
-        </is>
+        <v>5.0821206257752778E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>185</v>
       </c>
       <c r="B183">
         <v>5057677</v>
@@ -2988,14 +3616,12 @@
         <v>2099</v>
       </c>
       <c r="D183">
-        <v>0.04150126629280596</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Burundi</t>
-        </is>
+        <v>4.1501266292805962E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>186</v>
       </c>
       <c r="B184">
         <v>11890781</v>
@@ -3004,14 +3630,12 @@
         <v>3995</v>
       </c>
       <c r="D184">
-        <v>0.033597456718780706</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Democratic Republic of Congo</t>
-        </is>
+        <v>3.3597456718780706E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>187</v>
       </c>
       <c r="B185">
         <v>89561404</v>
@@ -3020,14 +3644,12 @@
         <v>29853</v>
       </c>
       <c r="D185">
-        <v>0.03333243860268202</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Chad</t>
-        </is>
+        <v>3.3332438602682021E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>188</v>
       </c>
       <c r="B186">
         <v>16425859</v>
@@ -3036,14 +3658,12 @@
         <v>4817</v>
       </c>
       <c r="D186">
-        <v>0.029325711367667283</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
+        <v>2.9325711367667283E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>189</v>
       </c>
       <c r="B187">
         <v>24206636</v>
@@ -3052,14 +3672,12 @@
         <v>5228</v>
       </c>
       <c r="D187">
-        <v>0.02159738346129549</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
+        <v>2.1597383461295489E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>190</v>
       </c>
       <c r="B188">
         <v>29825968</v>
@@ -3068,14 +3686,12 @@
         <v>6317</v>
       </c>
       <c r="D188">
-        <v>0.021179530535270472</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Fiji</t>
-        </is>
+        <v>2.1179530535270472E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>191</v>
       </c>
       <c r="B189">
         <v>896444</v>
@@ -3084,14 +3700,12 @@
         <v>117</v>
       </c>
       <c r="D189">
-        <v>0.013051568196117105</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Laos</t>
-        </is>
+        <v>1.3051568196117105E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>192</v>
       </c>
       <c r="B190">
         <v>7275556</v>
@@ -3100,14 +3714,12 @@
         <v>757</v>
       </c>
       <c r="D190">
-        <v>0.01040470309073286</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>China</t>
-        </is>
+        <v>1.040470309073286E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>193</v>
       </c>
       <c r="B191">
         <v>1439323774</v>
@@ -3116,14 +3728,12 @@
         <v>102494</v>
       </c>
       <c r="D191">
-        <v>0.007120982912354784</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Marshall Islands</t>
-        </is>
+        <v>7.1209829123547843E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>194</v>
       </c>
       <c r="B192">
         <v>59194</v>
@@ -3132,14 +3742,12 @@
         <v>4</v>
       </c>
       <c r="D192">
-        <v>0.006757441632597898</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Taiwan</t>
-        </is>
+        <v>6.757441632597898E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>195</v>
       </c>
       <c r="B193">
         <v>23816775</v>
@@ -3148,14 +3756,12 @@
         <v>1128</v>
       </c>
       <c r="D193">
-        <v>0.004736157603201945</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
+        <v>4.7361576032019454E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>196</v>
       </c>
       <c r="B194">
         <v>97338583</v>
@@ -3164,14 +3770,12 @@
         <v>2928</v>
       </c>
       <c r="D194">
-        <v>0.0030080569387372323</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Solomon Islands</t>
-        </is>
+        <v>3.0080569387372323E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>197</v>
       </c>
       <c r="B195">
         <v>686878</v>
@@ -3180,14 +3784,12 @@
         <v>20</v>
       </c>
       <c r="D195">
-        <v>0.002911725226313843</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Samoa</t>
-        </is>
+        <v>2.9117252263138431E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>198</v>
       </c>
       <c r="B196">
         <v>198410</v>
@@ -3196,14 +3798,12 @@
         <v>3</v>
       </c>
       <c r="D196">
-        <v>0.0015120205634796633</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
+        <v>1.5120205634796633E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>199</v>
       </c>
       <c r="B197">
         <v>307150</v>
@@ -3212,14 +3812,12 @@
         <v>4</v>
       </c>
       <c r="D197">
-        <v>0.001302295295458245</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Micronesia (country)</t>
-        </is>
+        <v>1.3022952954582451E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>200</v>
       </c>
       <c r="B198">
         <v>115021</v>
@@ -3228,14 +3826,12 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>0.0008694064562123438</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
+        <v>8.6940645621234381E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>201</v>
       </c>
       <c r="B199">
         <v>59734213</v>
@@ -3244,216 +3840,305 @@
         <v>509</v>
       </c>
       <c r="D199">
-        <v>0.000852107987092757</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Macao</t>
-        </is>
+        <v>8.5210798709275698E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>202</v>
       </c>
       <c r="B200">
         <v>649342</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>International</t>
-        </is>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
       </c>
       <c r="C201">
         <v>721</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Guernsey</t>
-        </is>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>204</v>
       </c>
       <c r="B202">
         <v>67052</v>
       </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Isle of Man</t>
-        </is>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>205</v>
       </c>
       <c r="B203">
         <v>85032</v>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Turks and Caicos Islands</t>
-        </is>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>206</v>
       </c>
       <c r="B204">
         <v>38718</v>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Gibraltar</t>
-        </is>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>207</v>
       </c>
       <c r="B205">
         <v>33691</v>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Falkland Islands</t>
-        </is>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>208</v>
       </c>
       <c r="B206">
         <v>3483</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Aruba</t>
-        </is>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>209</v>
       </c>
       <c r="B207">
         <v>106766</v>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>210</v>
       </c>
       <c r="B208">
         <v>105697</v>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Greenland</t>
-        </is>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>211</v>
       </c>
       <c r="B209">
         <v>56772</v>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Faeroe Islands</t>
-        </is>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>212</v>
       </c>
       <c r="B210">
         <v>48865</v>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Jersey</t>
-        </is>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>213</v>
       </c>
       <c r="B211">
         <v>101073</v>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Nauru</t>
-        </is>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>214</v>
       </c>
       <c r="B212">
         <v>10834</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Curacao</t>
-        </is>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>215</v>
       </c>
       <c r="B213">
         <v>164100</v>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>216</v>
       </c>
       <c r="B214">
         <v>62273</v>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Anguilla</t>
-        </is>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>217</v>
       </c>
       <c r="B215">
         <v>15002</v>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Saint Helena</t>
-        </is>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>218</v>
       </c>
       <c r="B216">
         <v>6071</v>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>Cayman Islands</t>
-        </is>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>219</v>
       </c>
       <c r="B217">
         <v>65720</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Hong Kong</t>
-        </is>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>220</v>
       </c>
       <c r="B218">
         <v>7496988</v>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Northern Cyprus</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Montserrat</t>
-        </is>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>222</v>
       </c>
       <c r="B220">
         <v>4999</v>
       </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D220" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>